--- a/Symphony/2021/May/All Details/07.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/07.05.2021/MC Bank Statement May-2021.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\May\All Details\07.05.2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId4"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -619,11 +614,17 @@
   <si>
     <t>Date: 07.05.2021</t>
   </si>
+  <si>
+    <t>07.05.2021</t>
+  </si>
+  <si>
+    <t>07-05,2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2651,49 +2652,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,7 +2860,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2939,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,7 +3069,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3205,7 +3206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4562,7 +4563,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4768,9 +4769,15 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="293"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
       <c r="E13" s="39">
         <f t="shared" si="0"/>
         <v>11041</v>
@@ -5690,7 +5697,7 @@
       <pane xSplit="10" ySplit="18" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5701,67 +5708,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="295" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="296" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="298"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -5770,52 +5777,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="191" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="305" t="s">
+      <c r="B4" s="301" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="303" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="303" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="303" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="303" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="303" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="303" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="303" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="303" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="303" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="307" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="307" t="s">
+      <c r="P4" s="305" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="287" t="s">
@@ -5828,22 +5835,22 @@
       <c r="W4" s="193"/>
     </row>
     <row r="5" spans="1:24" s="191" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="308"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="306"/>
       <c r="Q5" s="288" t="s">
         <v>95</v>
       </c>
@@ -6095,7 +6102,9 @@
       <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:24" s="21" customFormat="1">
-      <c r="A12" s="198"/>
+      <c r="A12" s="198" t="s">
+        <v>196</v>
+      </c>
       <c r="B12" s="206"/>
       <c r="C12" s="199"/>
       <c r="D12" s="207"/>
@@ -6104,7 +6113,9 @@
       <c r="G12" s="207"/>
       <c r="H12" s="207"/>
       <c r="I12" s="207"/>
-      <c r="J12" s="207"/>
+      <c r="J12" s="207">
+        <v>30</v>
+      </c>
       <c r="K12" s="207"/>
       <c r="L12" s="207"/>
       <c r="M12" s="207"/>
@@ -6113,7 +6124,7 @@
       <c r="P12" s="209"/>
       <c r="Q12" s="203">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R12" s="204"/>
       <c r="S12" s="46"/>
@@ -6771,7 +6782,7 @@
       </c>
       <c r="J37" s="225">
         <f t="shared" si="1"/>
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="K37" s="225">
         <f t="shared" si="1"/>
@@ -6799,7 +6810,7 @@
       </c>
       <c r="Q37" s="227">
         <f>SUM(Q6:Q36)</f>
-        <v>10220</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8802,6 +8813,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -8818,9 +8832,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8833,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9572,13 +9583,21 @@
       <c r="BI10" s="244"/>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
+      <c r="A11" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="99">
+        <v>164590</v>
+      </c>
+      <c r="C11" s="99">
+        <v>165430</v>
+      </c>
+      <c r="D11" s="99">
+        <v>20</v>
+      </c>
       <c r="E11" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165450</v>
       </c>
       <c r="F11" s="107"/>
       <c r="G11" s="111"/>
@@ -11071,23 +11090,23 @@
       </c>
       <c r="B33" s="99">
         <f>SUM(B5:B32)</f>
-        <v>2013183</v>
+        <v>2177773</v>
       </c>
       <c r="C33" s="99">
         <f>SUM(C5:C32)</f>
-        <v>1932693</v>
+        <v>2098123</v>
       </c>
       <c r="D33" s="99">
         <f>SUM(D5:D32)</f>
-        <v>10220</v>
+        <v>10240</v>
       </c>
       <c r="E33" s="99">
         <f>SUM(E5:E32)</f>
-        <v>1942913</v>
+        <v>2108363</v>
       </c>
       <c r="F33" s="107">
         <f>B33-E33</f>
-        <v>70270</v>
+        <v>69410</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="257"/>
@@ -12850,10 +12869,10 @@
         <v>170</v>
       </c>
       <c r="C59" s="142">
-        <v>610585</v>
+        <v>609725</v>
       </c>
       <c r="D59" s="143" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="96"/>
@@ -17470,7 +17489,7 @@
       <c r="B119" s="311"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
-        <v>2706666</v>
+        <v>2705806</v>
       </c>
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
@@ -17623,7 +17642,7 @@
       <c r="B121" s="313"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
-        <v>2706666</v>
+        <v>2705806</v>
       </c>
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
@@ -20227,8 +20246,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20331,7 +20350,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="68">
-        <v>4815296</v>
+        <v>4658709.53</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="53"/>
@@ -20363,7 +20382,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="67">
-        <v>47085.790000000045</v>
+        <v>51168.530000000028</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="65" t="s">
@@ -20405,7 +20424,7 @@
         <v>145</v>
       </c>
       <c r="E6" s="236">
-        <v>80626.789999999994</v>
+        <v>242046</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="53"/>
@@ -20477,7 +20496,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="68">
-        <v>2695626</v>
+        <v>2694876</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="53"/>
@@ -20549,7 +20568,7 @@
       </c>
       <c r="B10" s="71">
         <f>B5+B6-B8-B9</f>
-        <v>36865.790000000045</v>
+        <v>40948.530000000028</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
@@ -20663,7 +20682,7 @@
       </c>
       <c r="B13" s="70">
         <f>B4+B5-B8-B9+B11+B6</f>
-        <v>8036865.79</v>
+        <v>8040948.5300000003</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66" t="s">
@@ -20671,7 +20690,7 @@
       </c>
       <c r="E13" s="69">
         <f>E4+E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>8036865.79</v>
+        <v>8040948.5300000003</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="237">
@@ -21007,7 +21026,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="273">
-        <v>610585</v>
+        <v>609725</v>
       </c>
       <c r="C22" s="274"/>
       <c r="D22" s="271" t="s">
